--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_4_10.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_4_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-818654.6919687641</v>
+        <v>-820635.6085491894</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2630451.066553589</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14290745.96615479</v>
+        <v>14299195.17106854</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,10 +668,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>158.2605707690898</v>
+        <v>375.9431264096725</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -719,7 +719,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -865,22 +865,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>189.5968436493439</v>
       </c>
       <c r="V4" t="n">
-        <v>230.2634979541059</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>102.5637353995021</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -953,16 +953,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>311.4936872159399</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1066,16 +1066,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,10 +1096,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>4.564134925390867</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1111,7 +1111,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>201.330287938294</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>211.0025011558368</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>6.28367916400425</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>99.90187484148903</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1333,22 +1333,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>50.43151777216863</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274054</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051987</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1464,10 +1464,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H12" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262918</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014433</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T12" t="n">
         <v>192.9654699154601</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>118.8184004271334</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1534,7 +1534,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1543,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,25 +1573,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>110.7287693225084</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1619,13 +1619,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274054</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051987</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1701,10 +1701,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H15" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262918</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014433</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T15" t="n">
         <v>192.9654699154601</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>115.7267977440692</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,10 +1813,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1825,7 +1825,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>116.378888005797</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1895,7 +1895,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2014,13 +2014,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>114.4760112588799</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,13 +2050,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>203.8435192151914</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2287,13 +2287,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>221.9323490168577</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>143.3158222056514</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2476,16 +2476,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>132.0909333733111</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2524,22 +2524,22 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>139.1537278750035</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2713,7 +2713,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2761,22 +2761,22 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>171.0813558904081</v>
       </c>
       <c r="U28" t="n">
-        <v>123.377125537976</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.62872355338</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>78.6753126994829</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>93.4122163896555</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>91.23070601801231</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>18.66111384518693</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348203</v>
+        <v>111.2903118348207</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897887</v>
+        <v>93.71057173897927</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571473</v>
+        <v>55.21598883571513</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523553</v>
+        <v>54.76109577523594</v>
       </c>
       <c r="S31" t="n">
-        <v>142.717553355046</v>
+        <v>142.7175533550464</v>
       </c>
       <c r="T31" t="n">
-        <v>166.344304429832</v>
+        <v>166.3443044298324</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700201</v>
+        <v>231.0340957700205</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952707</v>
+        <v>196.9343866952711</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080337</v>
+        <v>231.3197417080341</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604799</v>
+        <v>170.5063987604803</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235375</v>
+        <v>163.3813967235379</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3205,7 +3205,7 @@
         <v>80.78193823789547</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3253,7 +3253,7 @@
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224538</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3442,7 +3442,7 @@
         <v>80.78193823789547</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D40" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463132</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3752,13 +3752,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274051</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051987</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3834,10 +3834,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H42" t="n">
-        <v>94.98542483262918</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014431</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3867,7 +3867,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T42" t="n">
         <v>192.9654699154601</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522968</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898731</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857183</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692865</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329072</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373706</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789557</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463137</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S43" t="n">
-        <v>129.7889198539627</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T43" t="n">
-        <v>153.4156709287487</v>
+        <v>153.4156709287486</v>
       </c>
       <c r="U43" t="n">
-        <v>218.1054622689368</v>
+        <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941875</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069505</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
-        <v>157.5777652593966</v>
+        <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224543</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="44">
@@ -3989,13 +3989,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4068,13 +4068,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>134.9994691657081</v>
+        <v>135.5574116118565</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851115</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,16 +4101,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414547</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T45" t="n">
-        <v>190.7165703189231</v>
+        <v>192.9654699154601</v>
       </c>
       <c r="U45" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8238751368068</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>132.8568435633447</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>120.2716844800353</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D46" t="n">
-        <v>101.6403363996198</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E46" t="n">
-        <v>99.4588260279766</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433867</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G46" t="n">
-        <v>119.0506716404357</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77987829572821</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124552</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145477</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S46" t="n">
-        <v>142.7938887128493</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T46" t="n">
-        <v>172.5738126575766</v>
+        <v>153.4156709287486</v>
       </c>
       <c r="U46" t="n">
-        <v>239.2367015870203</v>
+        <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>205.1625067052354</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W46" t="n">
-        <v>239.5478617179984</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X46" t="n">
-        <v>178.7345187704446</v>
+        <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>171.6095167335022</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
   </sheetData>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1112.426648284105</v>
+        <v>1297.230130518035</v>
       </c>
       <c r="C2" t="n">
-        <v>1112.426648284105</v>
+        <v>928.267613577623</v>
       </c>
       <c r="D2" t="n">
-        <v>1112.426648284105</v>
+        <v>928.267613577623</v>
       </c>
       <c r="E2" t="n">
-        <v>1112.426648284105</v>
+        <v>928.267613577623</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G2" t="n">
         <v>534.603677789272</v>
@@ -4358,22 +4358,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2169.72394915887</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V2" t="n">
-        <v>1838.661061815299</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W2" t="n">
-        <v>1485.892406545185</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="X2" t="n">
-        <v>1112.426648284105</v>
+        <v>1683.829970582156</v>
       </c>
       <c r="Y2" t="n">
-        <v>1112.426648284105</v>
+        <v>1683.829970582156</v>
       </c>
     </row>
     <row r="3">
@@ -4398,25 +4398,25 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4513,19 +4513,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>286.5323736931987</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>286.5323736931987</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="V4" t="n">
-        <v>53.94298182036445</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X4" t="n">
         <v>53.94298182036445</v>
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1525.74665604171</v>
+        <v>1995.909162857192</v>
       </c>
       <c r="C5" t="n">
-        <v>1525.74665604171</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D5" t="n">
-        <v>1422.14692331494</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548716</v>
+        <v>2382.509002921313</v>
       </c>
       <c r="W5" t="n">
-        <v>2289.351746278601</v>
+        <v>2382.509002921313</v>
       </c>
       <c r="X5" t="n">
-        <v>1915.885988017521</v>
+        <v>2382.509002921313</v>
       </c>
       <c r="Y5" t="n">
-        <v>1525.74665604171</v>
+        <v>2382.509002921313</v>
       </c>
     </row>
     <row r="6">
@@ -4653,16 +4653,16 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>404.9282174162495</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>404.9282174162495</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>404.9282174162495</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>404.9282174162495</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>404.9282174162495</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>694.1018277616815</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>694.1018277616815</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>694.1018277616815</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>404.9282174162495</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V7" t="n">
-        <v>404.9282174162495</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="W7" t="n">
-        <v>404.9282174162495</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="X7" t="n">
-        <v>404.9282174162495</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="Y7" t="n">
-        <v>404.9282174162495</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1194.175505447095</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="C8" t="n">
-        <v>825.2129885066831</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="D8" t="n">
-        <v>466.9472898999326</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E8" t="n">
-        <v>81.15903730168839</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F8" t="n">
-        <v>74.21353655248491</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>60.29013249107582</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>60.29013249107582</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4820,34 +4820,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="W8" t="n">
-        <v>2344.380435748108</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="X8" t="n">
-        <v>1970.914677487028</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="Y8" t="n">
-        <v>1580.775345511217</v>
+        <v>1993.546461473041</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4878,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>154.8539665087372</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C10" t="n">
-        <v>154.8539665087372</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>154.8539665087372</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>154.8539665087372</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>154.8539665087372</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>154.8539665087372</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,43 +4969,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>677.1880571638397</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>462.8996339820025</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600561</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="U10" t="n">
-        <v>409.5384547146241</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="V10" t="n">
-        <v>154.8539665087372</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="W10" t="n">
-        <v>154.8539665087372</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="X10" t="n">
-        <v>154.8539665087372</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="Y10" t="n">
-        <v>154.8539665087372</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="11">
@@ -5018,46 +5018,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823717</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514029</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795202</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515093</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619125</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5072,16 +5072,16 @@
         <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5103,40 +5103,40 @@
         <v>664.0438201101999</v>
       </c>
       <c r="E12" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047444</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316293</v>
       </c>
       <c r="G12" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358146</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675023</v>
       </c>
       <c r="I12" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126485</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277032</v>
+        <v>674.4285624571617</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341671</v>
+        <v>921.1936903636264</v>
       </c>
       <c r="M12" t="n">
-        <v>1302.911127126628</v>
+        <v>1228.513823643589</v>
       </c>
       <c r="N12" t="n">
-        <v>1632.773754790661</v>
+        <v>1558.376451307622</v>
       </c>
       <c r="O12" t="n">
-        <v>2302.23751609332</v>
+        <v>1837.91651652632</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>861.4909633328886</v>
+        <v>563.1598612984388</v>
       </c>
       <c r="C13" t="n">
-        <v>692.5547804049817</v>
+        <v>394.223678370532</v>
       </c>
       <c r="D13" t="n">
-        <v>542.4381409926459</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E13" t="n">
-        <v>394.5250474102529</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028584</v>
@@ -5197,52 +5197,52 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688074</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.497233179937</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471202</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974668</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980065</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585748</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.9162705579</v>
+        <v>1498.916270557904</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.9162705579</v>
+        <v>1387.84116711973</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.9162705579</v>
+        <v>1187.921157035282</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.9162705579</v>
+        <v>964.1357418247881</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.9162705579</v>
+        <v>675.0071030383464</v>
       </c>
       <c r="V13" t="n">
-        <v>1498.9162705579</v>
+        <v>675.0071030383464</v>
       </c>
       <c r="W13" t="n">
-        <v>1209.49910052094</v>
+        <v>675.0071030383464</v>
       </c>
       <c r="X13" t="n">
-        <v>981.5095496229223</v>
+        <v>563.1598612984388</v>
       </c>
       <c r="Y13" t="n">
-        <v>981.5095496229223</v>
+        <v>563.1598612984388</v>
       </c>
     </row>
     <row r="14">
@@ -5255,70 +5255,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823792</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514096</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795209</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515093</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619125</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5340,40 +5340,40 @@
         <v>664.0438201101999</v>
       </c>
       <c r="E15" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047444</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316293</v>
       </c>
       <c r="G15" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358146</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675023</v>
       </c>
       <c r="I15" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126485</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571617</v>
       </c>
       <c r="L15" t="n">
-        <v>563.7235867775518</v>
+        <v>921.1936903636264</v>
       </c>
       <c r="M15" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643589</v>
       </c>
       <c r="N15" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307622</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.91651652632</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>644.7002604756206</v>
+        <v>732.6596981028218</v>
       </c>
       <c r="C16" t="n">
-        <v>475.7640775477137</v>
+        <v>563.723515174915</v>
       </c>
       <c r="D16" t="n">
-        <v>325.647438135378</v>
+        <v>563.723515174915</v>
       </c>
       <c r="E16" t="n">
-        <v>325.647438135378</v>
+        <v>415.8104215925218</v>
       </c>
       <c r="F16" t="n">
-        <v>325.647438135378</v>
+        <v>415.8104215925218</v>
       </c>
       <c r="G16" t="n">
-        <v>325.647438135378</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241959</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688076</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799372</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471204</v>
       </c>
       <c r="N16" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974668</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980066</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585749</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557905</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557905</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473457</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347408</v>
+        <v>1298.996260473457</v>
       </c>
       <c r="U16" t="n">
-        <v>1275.130855347408</v>
+        <v>1298.996260473457</v>
       </c>
       <c r="V16" t="n">
-        <v>1275.130855347408</v>
+        <v>1298.996260473457</v>
       </c>
       <c r="W16" t="n">
-        <v>1275.130855347408</v>
+        <v>1181.441828144369</v>
       </c>
       <c r="X16" t="n">
-        <v>1047.14130444939</v>
+        <v>953.452277246352</v>
       </c>
       <c r="Y16" t="n">
-        <v>826.3487253058603</v>
+        <v>732.6596981028218</v>
       </c>
     </row>
     <row r="17">
@@ -5513,10 +5513,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5531,10 +5531,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5549,16 +5549,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5610,10 +5610,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>324.3840174432675</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>324.3840174432675</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>324.3840174432675</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>324.3840174432675</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>324.3840174432675</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M19" t="n">
         <v>779.063975947119</v>
@@ -5686,7 +5686,7 @@
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5698,25 +5698,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473454</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011507</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952638</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>954.8146123150547</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>726.8250614170373</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>506.0324822735072</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5826,7 +5826,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
         <v>263.5382936126482</v>
@@ -5838,7 +5838,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
         <v>1558.376451307619</v>
@@ -5847,10 +5847,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5917,7 +5917,7 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5929,31 +5929,31 @@
         <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765186</v>
+        <v>1050.956765431391</v>
       </c>
       <c r="V22" t="n">
-        <v>531.3977182706318</v>
+        <v>796.2722772255036</v>
       </c>
       <c r="W22" t="n">
-        <v>241.9805482336712</v>
+        <v>506.8551071885429</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="23">
@@ -5966,22 +5966,22 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805463</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
@@ -5990,10 +5990,10 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6014,22 +6014,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6084,10 +6084,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028586</v>
+        <v>696.5850465240057</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028586</v>
+        <v>527.6488635960989</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028586</v>
+        <v>377.532224183763</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028586</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6163,7 +6163,7 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
         <v>1498.916270557902</v>
@@ -6172,25 +6172,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011507</v>
+        <v>986.0022165609663</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952638</v>
+        <v>986.0022165609663</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>696.5850465240057</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028586</v>
+        <v>696.5850465240057</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028586</v>
+        <v>696.5850465240057</v>
       </c>
     </row>
     <row r="26">
@@ -6212,31 +6212,31 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6251,10 +6251,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
         <v>4262.357857465301</v>
@@ -6312,7 +6312,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
         <v>1558.376451307619</v>
@@ -6358,7 +6358,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>265.3924131404652</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="C28" t="n">
         <v>265.3924131404652</v>
@@ -6391,13 +6391,13 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P28" t="n">
         <v>1460.082827585746</v>
@@ -6409,25 +6409,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347408</v>
+        <v>1126.186810079103</v>
       </c>
       <c r="U28" t="n">
-        <v>1150.50749621814</v>
+        <v>1126.186810079103</v>
       </c>
       <c r="V28" t="n">
-        <v>895.8230080122524</v>
+        <v>1126.186810079103</v>
       </c>
       <c r="W28" t="n">
-        <v>895.8230080122524</v>
+        <v>836.769640042142</v>
       </c>
       <c r="X28" t="n">
-        <v>667.8334571142351</v>
+        <v>836.769640042142</v>
       </c>
       <c r="Y28" t="n">
-        <v>447.040877970705</v>
+        <v>615.9770608986119</v>
       </c>
     </row>
     <row r="29">
@@ -6455,37 +6455,37 @@
         <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6537,31 +6537,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1333.825180851558</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>439.532429954222</v>
+        <v>565.4200295030838</v>
       </c>
       <c r="C31" t="n">
-        <v>360.0624171264615</v>
+        <v>565.4200295030838</v>
       </c>
       <c r="D31" t="n">
-        <v>360.0624171264615</v>
+        <v>471.0642553721186</v>
       </c>
       <c r="E31" t="n">
-        <v>360.0624171264615</v>
+        <v>378.912027071096</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264615</v>
+        <v>360.0624171264628</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276531</v>
+        <v>247.6479607276539</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569674</v>
+        <v>152.9908175569678</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864674</v>
+        <v>164.2510079864671</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933504</v>
+        <v>369.0876362933499</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667514</v>
+        <v>671.4509053667504</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962059</v>
+        <v>997.6688721962043</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286025</v>
+        <v>1322.864205286023</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353694</v>
+        <v>1611.390407353691</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021648</v>
+        <v>1842.641396021645</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056076</v>
+        <v>1936.126063056073</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899272</v>
+        <v>1880.811824899269</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096196</v>
+        <v>1736.652680096191</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167072</v>
+        <v>1568.628130167068</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356662002</v>
+        <v>1335.260356661997</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737486</v>
+        <v>1136.33673373748</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818963</v>
+        <v>902.6804289818901</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652499</v>
+        <v>730.4517433652434</v>
       </c>
       <c r="Y31" t="n">
-        <v>565.4200295030907</v>
+        <v>565.4200295030838</v>
       </c>
     </row>
     <row r="32">
@@ -6686,43 +6686,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6774,7 +6774,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
@@ -6786,7 +6786,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
         <v>1558.376451307619</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D34" t="n">
         <v>478.0475988506726</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504507</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
@@ -6856,13 +6856,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525401</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.686330625496</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6877,7 +6877,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
@@ -6898,10 +6898,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6911,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6926,40 +6926,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6968,19 +6968,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7011,25 +7011,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>966.6932390011339</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1296.555866665167</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>1966.019627967826</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7069,7 +7069,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C37" t="n">
         <v>559.3441472229673</v>
@@ -7087,10 +7087,10 @@
         <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>177.0503551525399</v>
@@ -7099,7 +7099,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7135,7 +7135,7 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y37" t="n">
         <v>772.2886129010317</v>
@@ -7154,25 +7154,25 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822459</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514085</v>
@@ -7187,13 +7187,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7239,34 +7239,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7306,13 +7306,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506725</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E40" t="n">
         <v>398.9545963083204</v>
@@ -7333,31 +7333,31 @@
         <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254952</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649695</v>
+        <v>709.8489468649688</v>
       </c>
       <c r="M40" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N40" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116387</v>
       </c>
       <c r="O40" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184155</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942115</v>
       </c>
       <c r="T40" t="n">
         <v>1710.200584771663</v>
@@ -7366,16 +7366,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="41">
@@ -7388,70 +7388,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
         <v>179.822278382246</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823792</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514096</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795209</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.1647015151</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619132</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643329</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899133</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207837</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7473,40 +7473,40 @@
         <v>664.0438201101999</v>
       </c>
       <c r="E42" t="n">
-        <v>504.8063651047444</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316293</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358146</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675023</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256438</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277041</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>534.542980734169</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1302.911127126632</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>2051.878056918006</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136704</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918914</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108336</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229676</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083208</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504515</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G43" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
@@ -7573,46 +7573,46 @@
         <v>394.6863306254959</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649698</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M43" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N43" t="n">
-        <v>1386.860941116389</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O43" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P43" t="n">
-        <v>1932.236826184158</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384658</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986525</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942118</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T43" t="n">
-        <v>1710.200584771665</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025264</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859418</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862498</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045216</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010324</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2375.872413702068</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2006.909896761656</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1648.644198154905</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1262.855945556661</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>851.8700407670534</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>436.7975906120499</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>139.2139902208171</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>453.5018714396643</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>1108.225203574964</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1559.259416823373</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2092.791321495297</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>2639.57013855408</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3483.798167244623</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4197.153254691569</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4655.631457200557</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4779.707779431612</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4669.417110958707</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4463.439363342929</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4209.908886616766</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3878.845999273196</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3526.077344003081</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3152.611585742001</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
-        <v>2762.47225376619</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>972.2488295092107</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C45" t="n">
-        <v>797.7958002280837</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D45" t="n">
-        <v>648.8613905668326</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E45" t="n">
-        <v>489.623935561377</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>343.0893775882621</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>206.7262774208804</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>116.2243830587479</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>190.8943609509032</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>429.1585599312504</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>795.8567202439158</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1243.133045466232</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1716.656089020686</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2127.617368438741</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2438.116959914844</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2595.758517561444</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
-        <v>2595.614164153959</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S45" t="n">
-        <v>2466.176277647439</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T45" t="n">
-        <v>2273.533277325294</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U45" t="n">
-        <v>2045.46543045971</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V45" t="n">
-        <v>1810.313322227967</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W45" t="n">
-        <v>1556.075965499766</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X45" t="n">
-        <v>1348.224465294233</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y45" t="n">
-        <v>1140.464166529279</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>790.1712248333965</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C46" t="n">
-        <v>668.6846748535629</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D46" t="n">
-        <v>566.0176683893005</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E46" t="n">
-        <v>465.5542077549808</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F46" t="n">
-        <v>366.1138932051438</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G46" t="n">
-        <v>245.8606895279361</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
-        <v>147.0931356938672</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>188.845109159628</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K46" t="n">
-        <v>439.337677360911</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L46" t="n">
-        <v>802.4028610618138</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M46" t="n">
-        <v>1193.065291913769</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N46" t="n">
-        <v>1580.97905387204</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O46" t="n">
-        <v>1926.81403804486</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P46" t="n">
-        <v>2205.926923730926</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2330.042605135848</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
-        <v>2287.661780841449</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>2143.425529616349</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T46" t="n">
-        <v>1969.108547133948</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1727.455313207665</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V46" t="n">
-        <v>1520.220457949851</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
-        <v>1278.252920860964</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>1097.71300291102</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y46" t="n">
-        <v>924.3700567155629</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8067,7 +8067,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>435.9238900028826</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8301,7 +8301,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>346.2692436516228</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8544,13 +8544,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783522</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,31 +8766,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>29.47535963978319</v>
+        <v>288.4091825776707</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445199</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8933,7 +8933,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928253</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
@@ -9003,31 +9003,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>29.47535963978231</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>288.4091825776707</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445199</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9258,13 +9258,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10118,7 +10118,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10191,28 +10191,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>392.1113620226437</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,7 +10665,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10677,16 +10677,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>159.0121003135241</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298102</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776744</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987297426</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,31 +11136,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>423.3376789165062</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445196</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11300,16 +11300,16 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>344.7025836476834</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -11370,13 +11370,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>61.01357975480387</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,7 +23422,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642719</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,25 +23461,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>114.9808860665287</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>33.18703062346691</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.4192454642719</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -23713,7 +23713,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>170.144110330794</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23902,13 +23902,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>52.01755720449773</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,13 +23938,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>82.39383318338592</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24175,13 +24175,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>64.30500338171963</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>82.39383318338571</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24364,16 +24364,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>14.34302927325805</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24412,22 +24412,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>82.39383318338571</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24649,22 +24649,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>50.46620516798112</v>
       </c>
       <c r="U28" t="n">
-        <v>162.8602268606014</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,19 +24835,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>124.6287235533804</v>
       </c>
       <c r="C31" t="n">
-        <v>33.36825177058766</v>
+        <v>112.043564470071</v>
       </c>
       <c r="D31" t="n">
-        <v>93.4122163896551</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801192</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437399</v>
+        <v>71.55667754918746</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>3.694822225952521e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1201602.931074853</v>
+        <v>1201602.931074854</v>
       </c>
     </row>
     <row r="6">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1245447.117508034</v>
+        <v>1260078.406658152</v>
       </c>
     </row>
   </sheetData>
@@ -26317,13 +26317,13 @@
         <v>205260.4424660708</v>
       </c>
       <c r="D2" t="n">
-        <v>205260.4424660707</v>
+        <v>205260.4424660708</v>
       </c>
       <c r="E2" t="n">
+        <v>195514.5298688544</v>
+      </c>
+      <c r="F2" t="n">
         <v>195514.5298688545</v>
-      </c>
-      <c r="F2" t="n">
-        <v>195514.5298688544</v>
       </c>
       <c r="G2" t="n">
         <v>195514.5298688544</v>
@@ -26347,13 +26347,13 @@
         <v>205260.4424660711</v>
       </c>
       <c r="N2" t="n">
-        <v>205260.4424660712</v>
+        <v>205260.4424660711</v>
       </c>
       <c r="O2" t="n">
         <v>205260.4424660711</v>
       </c>
       <c r="P2" t="n">
-        <v>205260.4424660707</v>
+        <v>205260.4424660711</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.0364768972</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,25 +26387,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.6053028458</v>
+        <v>44162.60530284549</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086672</v>
+        <v>10342.90680086703</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
-        <v>1.569592313899193e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>9.240775398211554e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>199883.8198755732</v>
+        <v>44162.60530284548</v>
       </c>
     </row>
     <row r="4">
@@ -26421,19 +26421,19 @@
         <v>174490.7773218262</v>
       </c>
       <c r="D4" t="n">
-        <v>174490.7773218262</v>
+        <v>174490.7773218261</v>
       </c>
       <c r="E4" t="n">
-        <v>29303.54555230231</v>
+        <v>29303.5455523023</v>
       </c>
       <c r="F4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230225</v>
       </c>
       <c r="G4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230234</v>
       </c>
       <c r="H4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230234</v>
       </c>
       <c r="I4" t="n">
         <v>29303.54555230233</v>
@@ -26442,22 +26442,22 @@
         <v>29303.54555230233</v>
       </c>
       <c r="K4" t="n">
-        <v>47468.16806649892</v>
+        <v>47468.16806649881</v>
       </c>
       <c r="L4" t="n">
-        <v>51722.3327936228</v>
+        <v>51722.33279362282</v>
       </c>
       <c r="M4" t="n">
         <v>51722.33279362282</v>
       </c>
       <c r="N4" t="n">
-        <v>51722.3327936228</v>
+        <v>51722.33279362282</v>
       </c>
       <c r="O4" t="n">
-        <v>51722.33279362267</v>
+        <v>51722.33279362282</v>
       </c>
       <c r="P4" t="n">
-        <v>30134.53761950705</v>
+        <v>51722.33279362282</v>
       </c>
     </row>
     <row r="5">
@@ -26473,13 +26473,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
@@ -26491,25 +26491,25 @@
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022281</v>
+        <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="N5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002542</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
-        <v>101591.2743431396</v>
+        <v>97715.1058200254</v>
       </c>
     </row>
     <row r="6">
@@ -26525,43 +26525,43 @@
         <v>-52089.4129191649</v>
       </c>
       <c r="D6" t="n">
-        <v>-52089.41291916496</v>
+        <v>-52089.41291916485</v>
       </c>
       <c r="E6" t="n">
-        <v>-450936.3781090604</v>
+        <v>-451033.8372350339</v>
       </c>
       <c r="F6" t="n">
-        <v>74223.65836783547</v>
+        <v>74126.1992418634</v>
       </c>
       <c r="G6" t="n">
-        <v>74223.65836783547</v>
+        <v>74126.19924186438</v>
       </c>
       <c r="H6" t="n">
-        <v>74223.65836783548</v>
+        <v>74126.19924186326</v>
       </c>
       <c r="I6" t="n">
-        <v>74223.65836783548</v>
+        <v>74126.19924186329</v>
       </c>
       <c r="J6" t="n">
-        <v>-102199.5608247575</v>
+        <v>-102297.0199507297</v>
       </c>
       <c r="K6" t="n">
-        <v>15152.08677306779</v>
+        <v>15133.59303513386</v>
       </c>
       <c r="L6" t="n">
-        <v>45480.09705155618</v>
+        <v>45480.09705155579</v>
       </c>
       <c r="M6" t="n">
-        <v>-78978.01138141422</v>
+        <v>-78978.0113814143</v>
       </c>
       <c r="N6" t="n">
         <v>55823.00385242286</v>
       </c>
       <c r="O6" t="n">
-        <v>55823.00385242207</v>
+        <v>55823.00385242286</v>
       </c>
       <c r="P6" t="n">
-        <v>-126349.1893721492</v>
+        <v>11660.39854957738</v>
       </c>
     </row>
   </sheetData>
@@ -26710,7 +26710,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855726</v>
+        <v>55.20325662855686</v>
       </c>
       <c r="L2" t="n">
         <v>68.13189012964065</v>
@@ -26719,13 +26719,13 @@
         <v>68.13189012964065</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964052</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="3">
@@ -26744,40 +26744,40 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541017</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541017</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541019</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593298</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855726</v>
+        <v>55.20325662855686</v>
       </c>
       <c r="L2" t="n">
-        <v>12.9286335010834</v>
+        <v>12.92863350108379</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>34.0465031175093</v>
+        <v>55.20325662855685</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370134</v>
+        <v>452.638741237015</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26993,13 +26993,13 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>259.3942951391964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855726</v>
+        <v>55.20325662855686</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27388,10 +27388,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>248.6154749726216</v>
+        <v>30.93291933203892</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27430,7 +27430,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,7 +27439,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27585,22 +27585,22 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>96.68503059263386</v>
       </c>
       <c r="V4" t="n">
-        <v>21.87414536972213</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>252.1193062211808</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27634,7 +27634,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27673,16 +27673,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>16.25857125419498</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27786,16 +27786,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>142.101057054767</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27831,7 +27831,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>50.80735538553398</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>171.7313405076438</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>145.647637080857</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28026,7 +28026,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>56.26901400030611</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
@@ -28053,22 +28053,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>96.23367420798922</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28615,7 +28615,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-1.4210854715202e-13</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855726</v>
+        <v>55.20325662855686</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855726</v>
+        <v>55.20325662855686</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855726</v>
+        <v>55.20325662855686</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855726</v>
+        <v>55.20325662855686</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855726</v>
+        <v>55.20325662855686</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855726</v>
+        <v>55.20325662855686</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855726</v>
+        <v>55.20325662855686</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855726</v>
+        <v>55.20325662855686</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855726</v>
+        <v>55.20325662855686</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855726</v>
+        <v>55.20325662855686</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855726</v>
+        <v>55.20325662855686</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855726</v>
+        <v>55.20325662855686</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855726</v>
+        <v>55.20325662855686</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855726</v>
+        <v>55.20325662855686</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855726</v>
+        <v>55.20325662855686</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855726</v>
+        <v>55.20325662855686</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855726</v>
+        <v>55.20325662855686</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855726</v>
+        <v>55.20325662855686</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855726</v>
+        <v>55.20325662855686</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855726</v>
+        <v>55.20325662855686</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855726</v>
+        <v>55.20325662855686</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855726</v>
+        <v>55.20325662855686</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855726</v>
+        <v>55.20325662855686</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855726</v>
+        <v>55.20325662855686</v>
       </c>
     </row>
     <row r="32">
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30241,7 +30241,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964052</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964052</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964052</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964052</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964052</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964052</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964052</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964052</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964052</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964052</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964052</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964052</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964052</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964052</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964052</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964052</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964052</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964052</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964052</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964052</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964052</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964052</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964052</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964052</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
   </sheetData>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443622</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444951</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176654</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961209</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041495</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304439</v>
+        <v>526.7962671304449</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565528</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927196</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540896</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130947001</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647502</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446481</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104662</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562946</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354898</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354106</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386728</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127075</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215737</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622987</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358991</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724854</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.536285481347</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855533</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458555</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.994806871096</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095118</v>
+        <v>110.895220109512</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.1761272367747</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361502</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680333</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081167</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990347</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298629</v>
+        <v>45.03122946298637</v>
       </c>
       <c r="J13" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822385</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557937</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196128</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171323</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263754</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065636</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469076</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235693</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337681</v>
       </c>
       <c r="S13" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336905</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892256</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351828</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443622</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444951</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176654</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961209</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041495</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304449</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565528</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927196</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540896</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130947001</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647502</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446481</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104662</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562946</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354898</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354106</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386728</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127075</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215737</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622987</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358991</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724854</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.536285481347</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855533</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458555</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.994806871096</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095118</v>
+        <v>110.895220109512</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.1761272367747</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361502</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680333</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081167</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990347</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298637</v>
       </c>
       <c r="J16" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822385</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557937</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196128</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171323</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263754</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065636</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469076</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235693</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337681</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336905</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892256</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351828</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33269,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,46 +33962,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H40" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L40" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P40" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443623</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444951</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176654</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.327311296121</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041496</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130445</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956553</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927197</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540897</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130947002</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647503</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446482</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104664</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
-        <v>14.61306122562947</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354898</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354106</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
-        <v>17.25001940386729</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127076</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215737</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622988</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358992</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724855</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813471</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855535</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458556</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710961</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
-        <v>110.895220109512</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677471</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361504</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1175069441680333</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.497410895081167</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H43" t="n">
-        <v>13.31334413990348</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298639</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
-        <v>105.8669502822385</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K43" t="n">
-        <v>173.9719203557937</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L43" t="n">
-        <v>222.6241616196128</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171324</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263755</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065636</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P43" t="n">
-        <v>181.1050413469077</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235694</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337683</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336906</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892258</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351831</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844668</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>168.89895979748</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953988</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
-        <v>19.1778794245112</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502566</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798531</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353157</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905541</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430538</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H46" t="n">
-        <v>17.47215759311879</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
-        <v>138.937596729739</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702024</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909882</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316432</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P46" t="n">
-        <v>237.6785118802169</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.556281789588</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,7 +34787,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>515.9012490932192</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
@@ -35021,7 +35021,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>410.0055067279167</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35264,13 +35264,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415084</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303338</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109081</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221126</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081129</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951482</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109132</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502054</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349844</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490663</v>
+        <v>168.0012142953158</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005183</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560242</v>
+        <v>249.257704956025</v>
       </c>
       <c r="M12" t="n">
-        <v>776.129440800466</v>
+        <v>310.4243770504671</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980136</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411089</v>
       </c>
       <c r="P12" t="n">
-        <v>236.5687745713078</v>
+        <v>495.502597509196</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507407</v>
+        <v>298.0903205209236</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556543</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299109</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799289</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789729</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.276877805604</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206032</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118011</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187314</v>
+        <v>39.22569997187496</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415084</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303338</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109081</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221054</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081129</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951482</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109132</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502054</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349844</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953158</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005183</v>
       </c>
       <c r="L15" t="n">
-        <v>278.7330645958066</v>
+        <v>249.257704956025</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504671</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980136</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411089</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>495.502597509196</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209236</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556572</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299109</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799289</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789729</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.276877805604</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206032</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118011</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187496</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35978,13 +35978,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36206,22 +36206,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36452,13 +36452,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,16 +36680,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36765,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,16 +36829,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,28 +36911,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>725.3059354206565</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412279</v>
+        <v>67.71102679412238</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584678</v>
+        <v>206.9056851584674</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084858</v>
+        <v>305.4174435084853</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075298</v>
+        <v>329.5130978075294</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341609</v>
+        <v>328.4801344341605</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491601</v>
+        <v>291.4406081491597</v>
       </c>
       <c r="P31" t="n">
-        <v>233.586857240358</v>
+        <v>233.5868572403576</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043202</v>
+        <v>94.4289566004316</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,16 +37154,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37236,10 +37236,10 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
         <v>246.5154907414414</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,22 +37385,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>366.1055152450488</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37473,10 +37473,10 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
         <v>246.5154907414414</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091992</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,19 +37701,19 @@
         <v>80.63966029520621</v>
       </c>
       <c r="K40" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L40" t="n">
-        <v>318.3460770095693</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M40" t="n">
-        <v>342.4417313086133</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
         <v>246.5154907414415</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415085</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303338</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109082</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221128</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.580930408113</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951483</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109132</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502055</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349031</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.910178954907</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879398</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560251</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004671</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>756.53225231452</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.363702241109</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315253</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507456</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520627</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K43" t="n">
-        <v>219.8343186595514</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L43" t="n">
-        <v>318.3460770095695</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M43" t="n">
-        <v>342.4417313086135</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352446</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502438</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414417</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q43" t="n">
-        <v>107.3575901015155</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407863</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265652</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>852.7555845359025</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908545</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636242</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152072</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609567</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859624</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.5535532316588</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K46" t="n">
-        <v>253.0227961629121</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7325087887907</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M46" t="n">
-        <v>394.6085160120764</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861327</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>349.3282668412323</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>281.932207763703</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3693751564862</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
